--- a/Document/单位编号.xlsx
+++ b/Document/单位编号.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bo\Documents\Tencent Files\41650355\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bo\Documents\Unity Project\TouHouExploding\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="262">
   <si>
     <t>琪露诺</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,6 +1326,18 @@
   </si>
   <si>
     <t>" HitPoint="</t>
+  </si>
+  <si>
+    <t>移动方式</t>
+  </si>
+  <si>
+    <t>" MoveMethod="</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>这个人很懒，暂时没有简介</t>
   </si>
 </sst>
 </file>
@@ -1707,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S118"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="U108" sqref="A2:U108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1721,7 +1733,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
@@ -1746,13 +1758,16 @@
         <v>250</v>
       </c>
       <c r="P1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" t="s">
         <v>251</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -1768,6 +1783,9 @@
       <c r="E2" t="s">
         <v>244</v>
       </c>
+      <c r="F2" t="s">
+        <v>261</v>
+      </c>
       <c r="G2" t="s">
         <v>245</v>
       </c>
@@ -1793,22 +1811,28 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P2" t="s">
+        <v>260</v>
       </c>
       <c r="Q2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -1824,6 +1848,9 @@
       <c r="E3" t="s">
         <v>244</v>
       </c>
+      <c r="F3" t="s">
+        <v>261</v>
+      </c>
       <c r="G3" t="s">
         <v>245</v>
       </c>
@@ -1849,22 +1876,28 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P3" t="s">
+        <v>260</v>
       </c>
       <c r="Q3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -1880,6 +1913,9 @@
       <c r="E4" t="s">
         <v>244</v>
       </c>
+      <c r="F4" t="s">
+        <v>261</v>
+      </c>
       <c r="G4" t="s">
         <v>245</v>
       </c>
@@ -1905,22 +1941,28 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P4" t="s">
+        <v>260</v>
       </c>
       <c r="Q4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -1936,6 +1978,9 @@
       <c r="E5" t="s">
         <v>244</v>
       </c>
+      <c r="F5" t="s">
+        <v>261</v>
+      </c>
       <c r="G5" t="s">
         <v>245</v>
       </c>
@@ -1961,22 +2006,28 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>254</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P5" t="s">
+        <v>260</v>
       </c>
       <c r="Q5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -1992,6 +2043,9 @@
       <c r="E6" t="s">
         <v>244</v>
       </c>
+      <c r="F6" t="s">
+        <v>261</v>
+      </c>
       <c r="G6" t="s">
         <v>245</v>
       </c>
@@ -2017,22 +2071,28 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>254</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P6" t="s">
+        <v>260</v>
       </c>
       <c r="Q6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -2048,6 +2108,9 @@
       <c r="E7" t="s">
         <v>244</v>
       </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
       <c r="G7" t="s">
         <v>245</v>
       </c>
@@ -2073,22 +2136,28 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P7" t="s">
+        <v>260</v>
       </c>
       <c r="Q7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>242</v>
       </c>
@@ -2104,6 +2173,9 @@
       <c r="E8" t="s">
         <v>244</v>
       </c>
+      <c r="F8" t="s">
+        <v>261</v>
+      </c>
       <c r="G8" t="s">
         <v>245</v>
       </c>
@@ -2129,22 +2201,28 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>254</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P8" t="s">
+        <v>260</v>
       </c>
       <c r="Q8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -2160,6 +2238,9 @@
       <c r="E9" t="s">
         <v>244</v>
       </c>
+      <c r="F9" t="s">
+        <v>261</v>
+      </c>
       <c r="G9" t="s">
         <v>245</v>
       </c>
@@ -2185,22 +2266,28 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>254</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P9" t="s">
+        <v>260</v>
       </c>
       <c r="Q9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -2216,6 +2303,9 @@
       <c r="E10" t="s">
         <v>244</v>
       </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
       <c r="G10" t="s">
         <v>245</v>
       </c>
@@ -2241,22 +2331,28 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P10" t="s">
+        <v>260</v>
       </c>
       <c r="Q10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -2272,6 +2368,9 @@
       <c r="E11" t="s">
         <v>244</v>
       </c>
+      <c r="F11" t="s">
+        <v>261</v>
+      </c>
       <c r="G11" t="s">
         <v>245</v>
       </c>
@@ -2297,22 +2396,28 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P11" t="s">
+        <v>260</v>
       </c>
       <c r="Q11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -2328,6 +2433,9 @@
       <c r="E12" t="s">
         <v>244</v>
       </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
       <c r="G12" t="s">
         <v>245</v>
       </c>
@@ -2353,22 +2461,28 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>254</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P12" t="s">
+        <v>260</v>
       </c>
       <c r="Q12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>242</v>
       </c>
@@ -2384,6 +2498,9 @@
       <c r="E13" t="s">
         <v>244</v>
       </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
       <c r="G13" t="s">
         <v>245</v>
       </c>
@@ -2409,22 +2526,28 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>254</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P13" t="s">
+        <v>260</v>
       </c>
       <c r="Q13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -2440,6 +2563,9 @@
       <c r="E14" t="s">
         <v>244</v>
       </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
       <c r="G14" t="s">
         <v>245</v>
       </c>
@@ -2465,22 +2591,28 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>254</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P14" t="s">
+        <v>260</v>
       </c>
       <c r="Q14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -2496,6 +2628,9 @@
       <c r="E15" t="s">
         <v>244</v>
       </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
       <c r="G15" t="s">
         <v>245</v>
       </c>
@@ -2521,22 +2656,28 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P15" t="s">
+        <v>260</v>
       </c>
       <c r="Q15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -2552,6 +2693,9 @@
       <c r="E16" t="s">
         <v>244</v>
       </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
       <c r="G16" t="s">
         <v>245</v>
       </c>
@@ -2577,22 +2721,28 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>254</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P16" t="s">
+        <v>260</v>
       </c>
       <c r="Q16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>242</v>
       </c>
@@ -2608,6 +2758,9 @@
       <c r="E17" t="s">
         <v>244</v>
       </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
       <c r="G17" t="s">
         <v>245</v>
       </c>
@@ -2633,22 +2786,28 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P17" t="s">
+        <v>260</v>
       </c>
       <c r="Q17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>242</v>
       </c>
@@ -2664,6 +2823,9 @@
       <c r="E18" t="s">
         <v>244</v>
       </c>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
       <c r="G18" t="s">
         <v>245</v>
       </c>
@@ -2689,22 +2851,28 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>254</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P18" t="s">
+        <v>260</v>
       </c>
       <c r="Q18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>242</v>
       </c>
@@ -2720,6 +2888,9 @@
       <c r="E19" t="s">
         <v>244</v>
       </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
       <c r="G19" t="s">
         <v>245</v>
       </c>
@@ -2745,22 +2916,28 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P19" t="s">
+        <v>260</v>
       </c>
       <c r="Q19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>242</v>
       </c>
@@ -2776,6 +2953,9 @@
       <c r="E20" t="s">
         <v>244</v>
       </c>
+      <c r="F20" t="s">
+        <v>261</v>
+      </c>
       <c r="G20" t="s">
         <v>245</v>
       </c>
@@ -2801,22 +2981,28 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>254</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P20" t="s">
+        <v>260</v>
       </c>
       <c r="Q20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -2832,6 +3018,9 @@
       <c r="E21" t="s">
         <v>244</v>
       </c>
+      <c r="F21" t="s">
+        <v>261</v>
+      </c>
       <c r="G21" t="s">
         <v>245</v>
       </c>
@@ -2857,22 +3046,28 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>254</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P21" t="s">
+        <v>260</v>
       </c>
       <c r="Q21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -2888,6 +3083,9 @@
       <c r="E22" t="s">
         <v>244</v>
       </c>
+      <c r="F22" t="s">
+        <v>261</v>
+      </c>
       <c r="G22" t="s">
         <v>245</v>
       </c>
@@ -2913,22 +3111,28 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>254</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P22" t="s">
+        <v>260</v>
       </c>
       <c r="Q22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>242</v>
       </c>
@@ -2944,6 +3148,9 @@
       <c r="E23" t="s">
         <v>244</v>
       </c>
+      <c r="F23" t="s">
+        <v>261</v>
+      </c>
       <c r="G23" t="s">
         <v>245</v>
       </c>
@@ -2969,22 +3176,28 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>254</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P23" t="s">
+        <v>260</v>
       </c>
       <c r="Q23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
       <c r="S23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -3000,6 +3213,9 @@
       <c r="E24" t="s">
         <v>244</v>
       </c>
+      <c r="F24" t="s">
+        <v>261</v>
+      </c>
       <c r="G24" t="s">
         <v>245</v>
       </c>
@@ -3025,22 +3241,28 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P24" t="s">
+        <v>260</v>
       </c>
       <c r="Q24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -3056,6 +3278,9 @@
       <c r="E25" t="s">
         <v>244</v>
       </c>
+      <c r="F25" t="s">
+        <v>261</v>
+      </c>
       <c r="G25" t="s">
         <v>245</v>
       </c>
@@ -3081,22 +3306,28 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>254</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P25" t="s">
+        <v>260</v>
       </c>
       <c r="Q25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -3112,6 +3343,9 @@
       <c r="E26" t="s">
         <v>244</v>
       </c>
+      <c r="F26" t="s">
+        <v>261</v>
+      </c>
       <c r="G26" t="s">
         <v>245</v>
       </c>
@@ -3137,22 +3371,28 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>254</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P26" t="s">
+        <v>260</v>
       </c>
       <c r="Q26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R26">
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>242</v>
       </c>
@@ -3168,6 +3408,9 @@
       <c r="E27" t="s">
         <v>244</v>
       </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
       <c r="G27" t="s">
         <v>245</v>
       </c>
@@ -3193,22 +3436,28 @@
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>254</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P27" t="s">
+        <v>260</v>
       </c>
       <c r="Q27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R27">
         <v>1</v>
       </c>
       <c r="S27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -3224,6 +3473,9 @@
       <c r="E28" t="s">
         <v>244</v>
       </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
       <c r="G28" t="s">
         <v>245</v>
       </c>
@@ -3249,22 +3501,28 @@
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>254</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P28" t="s">
+        <v>260</v>
       </c>
       <c r="Q28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>242</v>
       </c>
@@ -3280,6 +3538,9 @@
       <c r="E29" t="s">
         <v>244</v>
       </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
       <c r="G29" t="s">
         <v>245</v>
       </c>
@@ -3305,22 +3566,28 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>254</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P29" t="s">
+        <v>260</v>
       </c>
       <c r="Q29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>242</v>
       </c>
@@ -3336,6 +3603,9 @@
       <c r="E30" t="s">
         <v>244</v>
       </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
       <c r="G30" t="s">
         <v>245</v>
       </c>
@@ -3361,22 +3631,28 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>254</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P30" t="s">
+        <v>260</v>
       </c>
       <c r="Q30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -3392,6 +3668,9 @@
       <c r="E31" t="s">
         <v>244</v>
       </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
       <c r="G31" t="s">
         <v>245</v>
       </c>
@@ -3417,22 +3696,28 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>254</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P31" t="s">
+        <v>260</v>
       </c>
       <c r="Q31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -3448,6 +3733,9 @@
       <c r="E32" t="s">
         <v>244</v>
       </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
       <c r="G32" t="s">
         <v>245</v>
       </c>
@@ -3473,22 +3761,28 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>254</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P32" t="s">
+        <v>260</v>
       </c>
       <c r="Q32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>242</v>
       </c>
@@ -3504,6 +3798,9 @@
       <c r="E33" t="s">
         <v>244</v>
       </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
       <c r="G33" t="s">
         <v>245</v>
       </c>
@@ -3529,22 +3826,28 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>254</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P33" t="s">
+        <v>260</v>
       </c>
       <c r="Q33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3560,6 +3863,9 @@
       <c r="E34" t="s">
         <v>244</v>
       </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
       <c r="G34" t="s">
         <v>245</v>
       </c>
@@ -3585,22 +3891,28 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>254</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P34" t="s">
+        <v>260</v>
       </c>
       <c r="Q34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -3616,6 +3928,9 @@
       <c r="E35" t="s">
         <v>244</v>
       </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
       <c r="G35" t="s">
         <v>245</v>
       </c>
@@ -3641,22 +3956,28 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>254</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P35" t="s">
+        <v>260</v>
       </c>
       <c r="Q35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R35">
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -3672,6 +3993,9 @@
       <c r="E36" t="s">
         <v>244</v>
       </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
       <c r="G36" t="s">
         <v>245</v>
       </c>
@@ -3697,22 +4021,28 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>254</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P36" t="s">
+        <v>260</v>
       </c>
       <c r="Q36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>242</v>
       </c>
@@ -3728,6 +4058,9 @@
       <c r="E37" t="s">
         <v>244</v>
       </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
       <c r="G37" t="s">
         <v>245</v>
       </c>
@@ -3753,22 +4086,28 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>254</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P37" t="s">
+        <v>260</v>
       </c>
       <c r="Q37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>242</v>
       </c>
@@ -3784,6 +4123,9 @@
       <c r="E38" t="s">
         <v>244</v>
       </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
       <c r="G38" t="s">
         <v>245</v>
       </c>
@@ -3809,22 +4151,28 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>254</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P38" t="s">
+        <v>260</v>
       </c>
       <c r="Q38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>242</v>
       </c>
@@ -3840,6 +4188,9 @@
       <c r="E39" t="s">
         <v>244</v>
       </c>
+      <c r="F39" t="s">
+        <v>261</v>
+      </c>
       <c r="G39" t="s">
         <v>245</v>
       </c>
@@ -3865,22 +4216,28 @@
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>254</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P39" t="s">
+        <v>260</v>
       </c>
       <c r="Q39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -3896,6 +4253,9 @@
       <c r="E40" t="s">
         <v>244</v>
       </c>
+      <c r="F40" t="s">
+        <v>261</v>
+      </c>
       <c r="G40" t="s">
         <v>245</v>
       </c>
@@ -3921,22 +4281,28 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>254</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P40" t="s">
+        <v>260</v>
       </c>
       <c r="Q40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -3952,6 +4318,9 @@
       <c r="E41" t="s">
         <v>244</v>
       </c>
+      <c r="F41" t="s">
+        <v>261</v>
+      </c>
       <c r="G41" t="s">
         <v>245</v>
       </c>
@@ -3977,22 +4346,28 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>254</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P41" t="s">
+        <v>260</v>
       </c>
       <c r="Q41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>242</v>
       </c>
@@ -4008,6 +4383,9 @@
       <c r="E42" t="s">
         <v>244</v>
       </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
       <c r="G42" t="s">
         <v>245</v>
       </c>
@@ -4033,22 +4411,28 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>254</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P42" t="s">
+        <v>260</v>
       </c>
       <c r="Q42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="S42" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>242</v>
       </c>
@@ -4064,6 +4448,9 @@
       <c r="E43" t="s">
         <v>244</v>
       </c>
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
       <c r="G43" t="s">
         <v>245</v>
       </c>
@@ -4089,22 +4476,28 @@
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>254</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P43" t="s">
+        <v>260</v>
       </c>
       <c r="Q43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="S43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -4120,6 +4513,9 @@
       <c r="E44" t="s">
         <v>244</v>
       </c>
+      <c r="F44" t="s">
+        <v>261</v>
+      </c>
       <c r="G44" t="s">
         <v>245</v>
       </c>
@@ -4145,22 +4541,28 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>254</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P44" t="s">
+        <v>260</v>
       </c>
       <c r="Q44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -4176,6 +4578,9 @@
       <c r="E45" t="s">
         <v>244</v>
       </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
       <c r="G45" t="s">
         <v>245</v>
       </c>
@@ -4201,22 +4606,28 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>254</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P45" t="s">
+        <v>260</v>
       </c>
       <c r="Q45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>242</v>
       </c>
@@ -4232,6 +4643,9 @@
       <c r="E46" t="s">
         <v>244</v>
       </c>
+      <c r="F46" t="s">
+        <v>261</v>
+      </c>
       <c r="G46" t="s">
         <v>245</v>
       </c>
@@ -4257,22 +4671,28 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>254</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P46" t="s">
+        <v>260</v>
       </c>
       <c r="Q46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R46">
         <v>1</v>
       </c>
       <c r="S46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>242</v>
       </c>
@@ -4288,6 +4708,9 @@
       <c r="E47" t="s">
         <v>244</v>
       </c>
+      <c r="F47" t="s">
+        <v>261</v>
+      </c>
       <c r="G47" t="s">
         <v>245</v>
       </c>
@@ -4313,22 +4736,28 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>254</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P47" t="s">
+        <v>260</v>
       </c>
       <c r="Q47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -4344,6 +4773,9 @@
       <c r="E48" t="s">
         <v>244</v>
       </c>
+      <c r="F48" t="s">
+        <v>261</v>
+      </c>
       <c r="G48" t="s">
         <v>245</v>
       </c>
@@ -4369,22 +4801,28 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P48" t="s">
+        <v>260</v>
       </c>
       <c r="Q48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -4400,6 +4838,9 @@
       <c r="E49" t="s">
         <v>244</v>
       </c>
+      <c r="F49" t="s">
+        <v>261</v>
+      </c>
       <c r="G49" t="s">
         <v>245</v>
       </c>
@@ -4425,22 +4866,28 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>254</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P49" t="s">
+        <v>260</v>
       </c>
       <c r="Q49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>242</v>
       </c>
@@ -4456,6 +4903,9 @@
       <c r="E50" t="s">
         <v>244</v>
       </c>
+      <c r="F50" t="s">
+        <v>261</v>
+      </c>
       <c r="G50" t="s">
         <v>245</v>
       </c>
@@ -4481,22 +4931,28 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>254</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P50" t="s">
+        <v>260</v>
       </c>
       <c r="Q50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R50">
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -4512,6 +4968,9 @@
       <c r="E51" t="s">
         <v>244</v>
       </c>
+      <c r="F51" t="s">
+        <v>261</v>
+      </c>
       <c r="G51" t="s">
         <v>245</v>
       </c>
@@ -4537,22 +4996,28 @@
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>254</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P51" t="s">
+        <v>260</v>
       </c>
       <c r="Q51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R51">
         <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>242</v>
       </c>
@@ -4568,6 +5033,9 @@
       <c r="E52" t="s">
         <v>244</v>
       </c>
+      <c r="F52" t="s">
+        <v>261</v>
+      </c>
       <c r="G52" t="s">
         <v>245</v>
       </c>
@@ -4593,22 +5061,28 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>254</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P52" t="s">
+        <v>260</v>
       </c>
       <c r="Q52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -4624,6 +5098,9 @@
       <c r="E53" t="s">
         <v>244</v>
       </c>
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
       <c r="G53" t="s">
         <v>245</v>
       </c>
@@ -4649,22 +5126,28 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>254</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P53" t="s">
+        <v>260</v>
       </c>
       <c r="Q53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R53">
         <v>1</v>
       </c>
       <c r="S53" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -4680,6 +5163,9 @@
       <c r="E54" t="s">
         <v>244</v>
       </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
       <c r="G54" t="s">
         <v>245</v>
       </c>
@@ -4705,22 +5191,28 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>254</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P54" t="s">
+        <v>260</v>
       </c>
       <c r="Q54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R54">
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -4736,6 +5228,9 @@
       <c r="E55" t="s">
         <v>244</v>
       </c>
+      <c r="F55" t="s">
+        <v>261</v>
+      </c>
       <c r="G55" t="s">
         <v>245</v>
       </c>
@@ -4761,22 +5256,28 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>254</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P55" t="s">
+        <v>260</v>
       </c>
       <c r="Q55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
       <c r="S55" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -4792,6 +5293,9 @@
       <c r="E56" t="s">
         <v>244</v>
       </c>
+      <c r="F56" t="s">
+        <v>261</v>
+      </c>
       <c r="G56" t="s">
         <v>245</v>
       </c>
@@ -4817,22 +5321,28 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>254</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P56" t="s">
+        <v>260</v>
       </c>
       <c r="Q56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R56">
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>242</v>
       </c>
@@ -4848,6 +5358,9 @@
       <c r="E57" t="s">
         <v>244</v>
       </c>
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
       <c r="G57" t="s">
         <v>245</v>
       </c>
@@ -4873,22 +5386,28 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>254</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P57" t="s">
+        <v>260</v>
       </c>
       <c r="Q57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R57">
         <v>1</v>
       </c>
       <c r="S57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>242</v>
       </c>
@@ -4904,6 +5423,9 @@
       <c r="E58" t="s">
         <v>244</v>
       </c>
+      <c r="F58" t="s">
+        <v>261</v>
+      </c>
       <c r="G58" t="s">
         <v>245</v>
       </c>
@@ -4929,22 +5451,28 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>254</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P58" t="s">
+        <v>260</v>
       </c>
       <c r="Q58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>242</v>
       </c>
@@ -4960,6 +5488,9 @@
       <c r="E59" t="s">
         <v>244</v>
       </c>
+      <c r="F59" t="s">
+        <v>261</v>
+      </c>
       <c r="G59" t="s">
         <v>245</v>
       </c>
@@ -4985,22 +5516,28 @@
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>254</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P59" t="s">
+        <v>260</v>
       </c>
       <c r="Q59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -5016,6 +5553,9 @@
       <c r="E60" t="s">
         <v>244</v>
       </c>
+      <c r="F60" t="s">
+        <v>261</v>
+      </c>
       <c r="G60" t="s">
         <v>245</v>
       </c>
@@ -5041,22 +5581,28 @@
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>254</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P60" t="s">
+        <v>260</v>
       </c>
       <c r="Q60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>242</v>
       </c>
@@ -5072,6 +5618,9 @@
       <c r="E61" t="s">
         <v>244</v>
       </c>
+      <c r="F61" t="s">
+        <v>261</v>
+      </c>
       <c r="G61" t="s">
         <v>245</v>
       </c>
@@ -5097,22 +5646,28 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>254</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P61" t="s">
+        <v>260</v>
       </c>
       <c r="Q61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
       <c r="S61" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>242</v>
       </c>
@@ -5128,6 +5683,9 @@
       <c r="E62" t="s">
         <v>244</v>
       </c>
+      <c r="F62" t="s">
+        <v>261</v>
+      </c>
       <c r="G62" t="s">
         <v>245</v>
       </c>
@@ -5153,22 +5711,28 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>254</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P62" t="s">
+        <v>260</v>
       </c>
       <c r="Q62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -5184,6 +5748,9 @@
       <c r="E63" t="s">
         <v>244</v>
       </c>
+      <c r="F63" t="s">
+        <v>261</v>
+      </c>
       <c r="G63" t="s">
         <v>245</v>
       </c>
@@ -5209,22 +5776,28 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>254</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P63" t="s">
+        <v>260</v>
       </c>
       <c r="Q63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R63">
         <v>1</v>
       </c>
       <c r="S63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>242</v>
       </c>
@@ -5240,6 +5813,9 @@
       <c r="E64" t="s">
         <v>244</v>
       </c>
+      <c r="F64" t="s">
+        <v>261</v>
+      </c>
       <c r="G64" t="s">
         <v>245</v>
       </c>
@@ -5265,22 +5841,28 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>254</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P64" t="s">
+        <v>260</v>
       </c>
       <c r="Q64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>242</v>
       </c>
@@ -5296,6 +5878,9 @@
       <c r="E65" t="s">
         <v>244</v>
       </c>
+      <c r="F65" t="s">
+        <v>261</v>
+      </c>
       <c r="G65" t="s">
         <v>245</v>
       </c>
@@ -5321,22 +5906,28 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>254</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P65" t="s">
+        <v>260</v>
       </c>
       <c r="Q65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R65">
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>242</v>
       </c>
@@ -5352,6 +5943,9 @@
       <c r="E66" t="s">
         <v>244</v>
       </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
       <c r="G66" t="s">
         <v>245</v>
       </c>
@@ -5377,22 +5971,28 @@
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>254</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P66" t="s">
+        <v>260</v>
       </c>
       <c r="Q66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>242</v>
       </c>
@@ -5408,6 +6008,9 @@
       <c r="E67" t="s">
         <v>244</v>
       </c>
+      <c r="F67" t="s">
+        <v>261</v>
+      </c>
       <c r="G67" t="s">
         <v>245</v>
       </c>
@@ -5433,22 +6036,28 @@
         <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>254</v>
-      </c>
-      <c r="P67">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P67" t="s">
+        <v>260</v>
       </c>
       <c r="Q67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R67">
         <v>1</v>
       </c>
       <c r="S67" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -5464,6 +6073,9 @@
       <c r="E68" t="s">
         <v>244</v>
       </c>
+      <c r="F68" t="s">
+        <v>261</v>
+      </c>
       <c r="G68" t="s">
         <v>245</v>
       </c>
@@ -5489,22 +6101,28 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>254</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P68" t="s">
+        <v>260</v>
       </c>
       <c r="Q68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R68">
         <v>1</v>
       </c>
       <c r="S68" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>242</v>
       </c>
@@ -5520,6 +6138,9 @@
       <c r="E69" t="s">
         <v>244</v>
       </c>
+      <c r="F69" t="s">
+        <v>261</v>
+      </c>
       <c r="G69" t="s">
         <v>245</v>
       </c>
@@ -5545,22 +6166,28 @@
         <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>254</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P69" t="s">
+        <v>260</v>
       </c>
       <c r="Q69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="S69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>242</v>
       </c>
@@ -5576,6 +6203,9 @@
       <c r="E70" t="s">
         <v>244</v>
       </c>
+      <c r="F70" t="s">
+        <v>261</v>
+      </c>
       <c r="G70" t="s">
         <v>245</v>
       </c>
@@ -5601,22 +6231,28 @@
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>254</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P70" t="s">
+        <v>260</v>
       </c>
       <c r="Q70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R70">
         <v>1</v>
       </c>
       <c r="S70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>242</v>
       </c>
@@ -5632,6 +6268,9 @@
       <c r="E71" t="s">
         <v>244</v>
       </c>
+      <c r="F71" t="s">
+        <v>261</v>
+      </c>
       <c r="G71" t="s">
         <v>245</v>
       </c>
@@ -5657,22 +6296,28 @@
         <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>254</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P71" t="s">
+        <v>260</v>
       </c>
       <c r="Q71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R71">
         <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>242</v>
       </c>
@@ -5688,6 +6333,9 @@
       <c r="E72" t="s">
         <v>244</v>
       </c>
+      <c r="F72" t="s">
+        <v>261</v>
+      </c>
       <c r="G72" t="s">
         <v>245</v>
       </c>
@@ -5713,22 +6361,28 @@
         <v>1</v>
       </c>
       <c r="O72" t="s">
-        <v>254</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P72" t="s">
+        <v>260</v>
       </c>
       <c r="Q72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R72">
         <v>1</v>
       </c>
       <c r="S72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>242</v>
       </c>
@@ -5744,6 +6398,9 @@
       <c r="E73" t="s">
         <v>244</v>
       </c>
+      <c r="F73" t="s">
+        <v>261</v>
+      </c>
       <c r="G73" t="s">
         <v>245</v>
       </c>
@@ -5769,22 +6426,28 @@
         <v>1</v>
       </c>
       <c r="O73" t="s">
-        <v>254</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P73" t="s">
+        <v>260</v>
       </c>
       <c r="Q73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R73">
         <v>1</v>
       </c>
       <c r="S73" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>242</v>
       </c>
@@ -5800,6 +6463,9 @@
       <c r="E74" t="s">
         <v>244</v>
       </c>
+      <c r="F74" t="s">
+        <v>261</v>
+      </c>
       <c r="G74" t="s">
         <v>245</v>
       </c>
@@ -5825,22 +6491,28 @@
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>254</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P74" t="s">
+        <v>260</v>
       </c>
       <c r="Q74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R74">
         <v>1</v>
       </c>
       <c r="S74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>242</v>
       </c>
@@ -5856,6 +6528,9 @@
       <c r="E75" t="s">
         <v>244</v>
       </c>
+      <c r="F75" t="s">
+        <v>261</v>
+      </c>
       <c r="G75" t="s">
         <v>245</v>
       </c>
@@ -5881,22 +6556,28 @@
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>254</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P75" t="s">
+        <v>260</v>
       </c>
       <c r="Q75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R75">
         <v>1</v>
       </c>
       <c r="S75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -5912,6 +6593,9 @@
       <c r="E76" t="s">
         <v>244</v>
       </c>
+      <c r="F76" t="s">
+        <v>261</v>
+      </c>
       <c r="G76" t="s">
         <v>245</v>
       </c>
@@ -5937,22 +6621,28 @@
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>254</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P76" t="s">
+        <v>260</v>
       </c>
       <c r="Q76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R76">
         <v>1</v>
       </c>
       <c r="S76" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -5968,6 +6658,9 @@
       <c r="E77" t="s">
         <v>244</v>
       </c>
+      <c r="F77" t="s">
+        <v>261</v>
+      </c>
       <c r="G77" t="s">
         <v>245</v>
       </c>
@@ -5993,22 +6686,28 @@
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>254</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P77" t="s">
+        <v>260</v>
       </c>
       <c r="Q77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R77">
         <v>1</v>
       </c>
       <c r="S77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -6024,6 +6723,9 @@
       <c r="E78" t="s">
         <v>244</v>
       </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
       <c r="G78" t="s">
         <v>245</v>
       </c>
@@ -6049,22 +6751,28 @@
         <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>254</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P78" t="s">
+        <v>260</v>
       </c>
       <c r="Q78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R78">
         <v>1</v>
       </c>
       <c r="S78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>242</v>
       </c>
@@ -6080,6 +6788,9 @@
       <c r="E79" t="s">
         <v>244</v>
       </c>
+      <c r="F79" t="s">
+        <v>261</v>
+      </c>
       <c r="G79" t="s">
         <v>245</v>
       </c>
@@ -6105,22 +6816,28 @@
         <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>254</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P79" t="s">
+        <v>260</v>
       </c>
       <c r="Q79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R79">
         <v>1</v>
       </c>
       <c r="S79" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -6136,6 +6853,9 @@
       <c r="E80" t="s">
         <v>244</v>
       </c>
+      <c r="F80" t="s">
+        <v>261</v>
+      </c>
       <c r="G80" t="s">
         <v>245</v>
       </c>
@@ -6161,22 +6881,28 @@
         <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>254</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P80" t="s">
+        <v>260</v>
       </c>
       <c r="Q80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R80">
         <v>1</v>
       </c>
       <c r="S80" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -6192,6 +6918,9 @@
       <c r="E81" t="s">
         <v>244</v>
       </c>
+      <c r="F81" t="s">
+        <v>261</v>
+      </c>
       <c r="G81" t="s">
         <v>245</v>
       </c>
@@ -6217,22 +6946,28 @@
         <v>1</v>
       </c>
       <c r="O81" t="s">
-        <v>254</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P81" t="s">
+        <v>260</v>
       </c>
       <c r="Q81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R81">
         <v>1</v>
       </c>
       <c r="S81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -6248,6 +6983,9 @@
       <c r="E82" t="s">
         <v>244</v>
       </c>
+      <c r="F82" t="s">
+        <v>261</v>
+      </c>
       <c r="G82" t="s">
         <v>245</v>
       </c>
@@ -6273,22 +7011,28 @@
         <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>254</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P82" t="s">
+        <v>260</v>
       </c>
       <c r="Q82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R82">
         <v>1</v>
       </c>
       <c r="S82" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>242</v>
       </c>
@@ -6304,6 +7048,9 @@
       <c r="E83" t="s">
         <v>244</v>
       </c>
+      <c r="F83" t="s">
+        <v>261</v>
+      </c>
       <c r="G83" t="s">
         <v>245</v>
       </c>
@@ -6329,22 +7076,28 @@
         <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>254</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P83" t="s">
+        <v>260</v>
       </c>
       <c r="Q83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R83">
         <v>1</v>
       </c>
       <c r="S83" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -6360,6 +7113,9 @@
       <c r="E84" t="s">
         <v>244</v>
       </c>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
       <c r="G84" t="s">
         <v>245</v>
       </c>
@@ -6385,22 +7141,28 @@
         <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>254</v>
-      </c>
-      <c r="P84">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P84" t="s">
+        <v>260</v>
       </c>
       <c r="Q84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -6416,6 +7178,9 @@
       <c r="E85" t="s">
         <v>244</v>
       </c>
+      <c r="F85" t="s">
+        <v>261</v>
+      </c>
       <c r="G85" t="s">
         <v>245</v>
       </c>
@@ -6441,22 +7206,28 @@
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>254</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P85" t="s">
+        <v>260</v>
       </c>
       <c r="Q85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R85">
         <v>1</v>
       </c>
       <c r="S85" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>242</v>
       </c>
@@ -6472,6 +7243,9 @@
       <c r="E86" t="s">
         <v>244</v>
       </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
       <c r="G86" t="s">
         <v>245</v>
       </c>
@@ -6497,22 +7271,28 @@
         <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>254</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P86" t="s">
+        <v>260</v>
       </c>
       <c r="Q86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R86">
         <v>1</v>
       </c>
       <c r="S86" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>242</v>
       </c>
@@ -6528,6 +7308,9 @@
       <c r="E87" t="s">
         <v>244</v>
       </c>
+      <c r="F87" t="s">
+        <v>261</v>
+      </c>
       <c r="G87" t="s">
         <v>245</v>
       </c>
@@ -6553,22 +7336,28 @@
         <v>1</v>
       </c>
       <c r="O87" t="s">
-        <v>254</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P87" t="s">
+        <v>260</v>
       </c>
       <c r="Q87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R87">
         <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>242</v>
       </c>
@@ -6584,6 +7373,9 @@
       <c r="E88" t="s">
         <v>244</v>
       </c>
+      <c r="F88" t="s">
+        <v>261</v>
+      </c>
       <c r="G88" t="s">
         <v>245</v>
       </c>
@@ -6609,22 +7401,28 @@
         <v>1</v>
       </c>
       <c r="O88" t="s">
-        <v>254</v>
-      </c>
-      <c r="P88">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P88" t="s">
+        <v>260</v>
       </c>
       <c r="Q88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R88">
         <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>242</v>
       </c>
@@ -6640,6 +7438,9 @@
       <c r="E89" t="s">
         <v>244</v>
       </c>
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
       <c r="G89" t="s">
         <v>245</v>
       </c>
@@ -6665,22 +7466,28 @@
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>254</v>
-      </c>
-      <c r="P89">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P89" t="s">
+        <v>260</v>
       </c>
       <c r="Q89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R89">
         <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>242</v>
       </c>
@@ -6696,6 +7503,9 @@
       <c r="E90" t="s">
         <v>244</v>
       </c>
+      <c r="F90" t="s">
+        <v>261</v>
+      </c>
       <c r="G90" t="s">
         <v>245</v>
       </c>
@@ -6721,22 +7531,28 @@
         <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>254</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P90" t="s">
+        <v>260</v>
       </c>
       <c r="Q90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R90">
         <v>1</v>
       </c>
       <c r="S90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>242</v>
       </c>
@@ -6752,7 +7568,9 @@
       <c r="E91" t="s">
         <v>244</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" t="s">
+        <v>261</v>
+      </c>
       <c r="G91" t="s">
         <v>245</v>
       </c>
@@ -6778,22 +7596,28 @@
         <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>254</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P91" t="s">
+        <v>260</v>
       </c>
       <c r="Q91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R91">
         <v>1</v>
       </c>
       <c r="S91" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -6809,6 +7633,9 @@
       <c r="E92" t="s">
         <v>244</v>
       </c>
+      <c r="F92" t="s">
+        <v>261</v>
+      </c>
       <c r="G92" t="s">
         <v>245</v>
       </c>
@@ -6834,22 +7661,28 @@
         <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>254</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P92" t="s">
+        <v>260</v>
       </c>
       <c r="Q92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R92">
         <v>1</v>
       </c>
       <c r="S92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>242</v>
       </c>
@@ -6865,6 +7698,9 @@
       <c r="E93" t="s">
         <v>244</v>
       </c>
+      <c r="F93" t="s">
+        <v>261</v>
+      </c>
       <c r="G93" t="s">
         <v>245</v>
       </c>
@@ -6890,22 +7726,28 @@
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>254</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P93" t="s">
+        <v>260</v>
       </c>
       <c r="Q93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R93">
         <v>1</v>
       </c>
       <c r="S93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="U93" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>242</v>
       </c>
@@ -6921,6 +7763,9 @@
       <c r="E94" t="s">
         <v>244</v>
       </c>
+      <c r="F94" t="s">
+        <v>261</v>
+      </c>
       <c r="G94" t="s">
         <v>245</v>
       </c>
@@ -6946,22 +7791,28 @@
         <v>1</v>
       </c>
       <c r="O94" t="s">
-        <v>254</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P94" t="s">
+        <v>260</v>
       </c>
       <c r="Q94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R94">
         <v>1</v>
       </c>
       <c r="S94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -6977,6 +7828,9 @@
       <c r="E95" t="s">
         <v>244</v>
       </c>
+      <c r="F95" t="s">
+        <v>261</v>
+      </c>
       <c r="G95" t="s">
         <v>245</v>
       </c>
@@ -7002,22 +7856,28 @@
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>254</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P95" t="s">
+        <v>260</v>
       </c>
       <c r="Q95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R95">
         <v>1</v>
       </c>
       <c r="S95" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+      <c r="U95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>242</v>
       </c>
@@ -7033,6 +7893,9 @@
       <c r="E96" t="s">
         <v>244</v>
       </c>
+      <c r="F96" t="s">
+        <v>261</v>
+      </c>
       <c r="G96" t="s">
         <v>245</v>
       </c>
@@ -7058,22 +7921,28 @@
         <v>1</v>
       </c>
       <c r="O96" t="s">
-        <v>254</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P96" t="s">
+        <v>260</v>
       </c>
       <c r="Q96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R96">
         <v>1</v>
       </c>
       <c r="S96" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="U96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>242</v>
       </c>
@@ -7089,6 +7958,9 @@
       <c r="E97" t="s">
         <v>244</v>
       </c>
+      <c r="F97" t="s">
+        <v>261</v>
+      </c>
       <c r="G97" t="s">
         <v>245</v>
       </c>
@@ -7114,22 +7986,28 @@
         <v>1</v>
       </c>
       <c r="O97" t="s">
-        <v>254</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P97" t="s">
+        <v>260</v>
       </c>
       <c r="Q97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R97">
         <v>1</v>
       </c>
       <c r="S97" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>242</v>
       </c>
@@ -7145,6 +8023,9 @@
       <c r="E98" t="s">
         <v>244</v>
       </c>
+      <c r="F98" t="s">
+        <v>261</v>
+      </c>
       <c r="G98" t="s">
         <v>245</v>
       </c>
@@ -7170,22 +8051,28 @@
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>254</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P98" t="s">
+        <v>260</v>
       </c>
       <c r="Q98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R98">
         <v>1</v>
       </c>
       <c r="S98" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>242</v>
       </c>
@@ -7201,6 +8088,9 @@
       <c r="E99" t="s">
         <v>244</v>
       </c>
+      <c r="F99" t="s">
+        <v>261</v>
+      </c>
       <c r="G99" t="s">
         <v>245</v>
       </c>
@@ -7226,22 +8116,28 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>254</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P99" t="s">
+        <v>260</v>
       </c>
       <c r="Q99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R99">
         <v>1</v>
       </c>
       <c r="S99" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>242</v>
       </c>
@@ -7257,6 +8153,9 @@
       <c r="E100" t="s">
         <v>244</v>
       </c>
+      <c r="F100" t="s">
+        <v>261</v>
+      </c>
       <c r="G100" t="s">
         <v>245</v>
       </c>
@@ -7282,22 +8181,28 @@
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>254</v>
-      </c>
-      <c r="P100">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P100" t="s">
+        <v>260</v>
       </c>
       <c r="Q100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R100">
         <v>1</v>
       </c>
       <c r="S100" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -7313,6 +8218,9 @@
       <c r="E101" t="s">
         <v>244</v>
       </c>
+      <c r="F101" t="s">
+        <v>261</v>
+      </c>
       <c r="G101" t="s">
         <v>245</v>
       </c>
@@ -7338,22 +8246,28 @@
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>254</v>
-      </c>
-      <c r="P101">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P101" t="s">
+        <v>260</v>
       </c>
       <c r="Q101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R101">
         <v>1</v>
       </c>
       <c r="S101" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>242</v>
       </c>
@@ -7369,6 +8283,9 @@
       <c r="E102" t="s">
         <v>244</v>
       </c>
+      <c r="F102" t="s">
+        <v>261</v>
+      </c>
       <c r="G102" t="s">
         <v>245</v>
       </c>
@@ -7394,22 +8311,28 @@
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>254</v>
-      </c>
-      <c r="P102">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P102" t="s">
+        <v>260</v>
       </c>
       <c r="Q102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R102">
         <v>1</v>
       </c>
       <c r="S102" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -7425,6 +8348,9 @@
       <c r="E103" t="s">
         <v>244</v>
       </c>
+      <c r="F103" t="s">
+        <v>261</v>
+      </c>
       <c r="G103" t="s">
         <v>245</v>
       </c>
@@ -7450,22 +8376,28 @@
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>254</v>
-      </c>
-      <c r="P103">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P103" t="s">
+        <v>260</v>
       </c>
       <c r="Q103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R103">
         <v>1</v>
       </c>
       <c r="S103" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>242</v>
       </c>
@@ -7481,6 +8413,9 @@
       <c r="E104" t="s">
         <v>244</v>
       </c>
+      <c r="F104" t="s">
+        <v>261</v>
+      </c>
       <c r="G104" t="s">
         <v>245</v>
       </c>
@@ -7506,22 +8441,28 @@
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>254</v>
-      </c>
-      <c r="P104">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P104" t="s">
+        <v>260</v>
       </c>
       <c r="Q104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R104">
         <v>1</v>
       </c>
       <c r="S104" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>242</v>
       </c>
@@ -7537,6 +8478,9 @@
       <c r="E105" t="s">
         <v>244</v>
       </c>
+      <c r="F105" t="s">
+        <v>261</v>
+      </c>
       <c r="G105" t="s">
         <v>245</v>
       </c>
@@ -7562,22 +8506,28 @@
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>254</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P105" t="s">
+        <v>260</v>
       </c>
       <c r="Q105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R105">
         <v>1</v>
       </c>
       <c r="S105" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>242</v>
       </c>
@@ -7593,6 +8543,9 @@
       <c r="E106" t="s">
         <v>244</v>
       </c>
+      <c r="F106" t="s">
+        <v>261</v>
+      </c>
       <c r="G106" t="s">
         <v>245</v>
       </c>
@@ -7618,22 +8571,28 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>254</v>
-      </c>
-      <c r="P106">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P106" t="s">
+        <v>260</v>
       </c>
       <c r="Q106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R106">
         <v>1</v>
       </c>
       <c r="S106" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>242</v>
       </c>
@@ -7649,6 +8608,9 @@
       <c r="E107" t="s">
         <v>244</v>
       </c>
+      <c r="F107" t="s">
+        <v>261</v>
+      </c>
       <c r="G107" t="s">
         <v>245</v>
       </c>
@@ -7674,22 +8636,28 @@
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>254</v>
-      </c>
-      <c r="P107">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P107" t="s">
+        <v>260</v>
       </c>
       <c r="Q107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R107">
         <v>1</v>
       </c>
       <c r="S107" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -7705,6 +8673,9 @@
       <c r="E108" t="s">
         <v>244</v>
       </c>
+      <c r="F108" t="s">
+        <v>261</v>
+      </c>
       <c r="G108" t="s">
         <v>245</v>
       </c>
@@ -7730,31 +8701,37 @@
         <v>1</v>
       </c>
       <c r="O108" t="s">
-        <v>254</v>
-      </c>
-      <c r="P108">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="P108" t="s">
+        <v>260</v>
       </c>
       <c r="Q108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R108">
         <v>1</v>
       </c>
       <c r="S108" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B112"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
